--- a/documents/StandarizedVariableAnalysis.xlsx
+++ b/documents/StandarizedVariableAnalysis.xlsx
@@ -16,7 +16,6 @@
     <sheet name="PCA" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1278,11 +1277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438670888"/>
-        <c:axId val="438663440"/>
+        <c:axId val="389213776"/>
+        <c:axId val="389214168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438670888"/>
+        <c:axId val="389213776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438663440"/>
+        <c:crossAx val="389214168"/>
         <c:crossesAt val="-1.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1332,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438663440"/>
+        <c:axId val="389214168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,6 +1372,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1433,7 +1433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438670888"/>
+        <c:crossAx val="389213776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2112,11 +2112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438621976"/>
-        <c:axId val="438620016"/>
+        <c:axId val="466833392"/>
+        <c:axId val="466832216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438621976"/>
+        <c:axId val="466833392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438620016"/>
+        <c:crossAx val="466832216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438620016"/>
+        <c:axId val="466832216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438621976"/>
+        <c:crossAx val="466833392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2596,11 +2596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438621192"/>
-        <c:axId val="438622368"/>
+        <c:axId val="466834568"/>
+        <c:axId val="466834960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438621192"/>
+        <c:axId val="466834568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438622368"/>
+        <c:crossAx val="466834960"/>
         <c:crossesAt val="-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2651,7 +2651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438622368"/>
+        <c:axId val="466834960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438621192"/>
+        <c:crossAx val="466834568"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3099,11 +3099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438617272"/>
-        <c:axId val="438618056"/>
+        <c:axId val="466835744"/>
+        <c:axId val="388980744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438617272"/>
+        <c:axId val="466835744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +3145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438618056"/>
+        <c:crossAx val="388980744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3153,7 +3153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438618056"/>
+        <c:axId val="388980744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438617272"/>
+        <c:crossAx val="466835744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3329,6 +3329,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4328,11 +4329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284142672"/>
-        <c:axId val="284723776"/>
+        <c:axId val="388985056"/>
+        <c:axId val="388985840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284142672"/>
+        <c:axId val="388985056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4389,12 +4390,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284723776"/>
+        <c:crossAx val="388985840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284723776"/>
+        <c:axId val="388985840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +4452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284142672"/>
+        <c:crossAx val="388985056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4515,6 +4516,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4674,11 +4676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284726128"/>
-        <c:axId val="284722992"/>
+        <c:axId val="322181128"/>
+        <c:axId val="322185048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284726128"/>
+        <c:axId val="322181128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,12 +4737,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284722992"/>
+        <c:crossAx val="322185048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284722992"/>
+        <c:axId val="322185048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4797,7 +4799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284726128"/>
+        <c:crossAx val="322181128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4861,6 +4863,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5860,11 +5863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284724952"/>
-        <c:axId val="284725344"/>
+        <c:axId val="322188184"/>
+        <c:axId val="322182696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284724952"/>
+        <c:axId val="322188184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5921,12 +5924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284725344"/>
+        <c:crossAx val="322182696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284725344"/>
+        <c:axId val="322182696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,7 +5986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284724952"/>
+        <c:crossAx val="322188184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6221,11 +6224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438667752"/>
-        <c:axId val="438665008"/>
+        <c:axId val="389211816"/>
+        <c:axId val="389216128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="438667752"/>
+        <c:axId val="389211816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6267,7 +6270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438665008"/>
+        <c:crossAx val="389216128"/>
         <c:crossesAt val="-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6275,7 +6278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438665008"/>
+        <c:axId val="389216128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,6 +6319,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6376,7 +6380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438667752"/>
+        <c:crossAx val="389211816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6655,11 +6659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="375507856"/>
-        <c:axId val="375510992"/>
+        <c:axId val="389212992"/>
+        <c:axId val="389213384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="375507856"/>
+        <c:axId val="389212992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6701,7 +6705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375510992"/>
+        <c:crossAx val="389213384"/>
         <c:crossesAt val="-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6709,7 +6713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375510992"/>
+        <c:axId val="389213384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6810,7 +6814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375507856"/>
+        <c:crossAx val="389212992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7089,11 +7093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="375505112"/>
-        <c:axId val="375505504"/>
+        <c:axId val="389215344"/>
+        <c:axId val="389215736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="375505112"/>
+        <c:axId val="389215344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7135,7 +7139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375505504"/>
+        <c:crossAx val="389215736"/>
         <c:crossesAt val="-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7143,7 +7147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375505504"/>
+        <c:axId val="389215736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7244,7 +7248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375505112"/>
+        <c:crossAx val="389215344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7523,11 +7527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284139536"/>
-        <c:axId val="284141496"/>
+        <c:axId val="388986232"/>
+        <c:axId val="388983880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284139536"/>
+        <c:axId val="388986232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7569,7 +7573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284141496"/>
+        <c:crossAx val="388983880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7577,7 +7581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284141496"/>
+        <c:axId val="388983880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7683,7 +7687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284139536"/>
+        <c:crossAx val="388986232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7913,11 +7917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376648928"/>
-        <c:axId val="438617664"/>
+        <c:axId val="466836528"/>
+        <c:axId val="466830648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376648928"/>
+        <c:axId val="466836528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,6 +7989,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8051,12 +8056,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438617664"/>
+        <c:crossAx val="466830648"/>
         <c:crossesAt val="-1.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438617664"/>
+        <c:axId val="466830648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8116,6 +8121,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8182,7 +8188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376648928"/>
+        <c:crossAx val="466836528"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8422,11 +8428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438622760"/>
-        <c:axId val="438623152"/>
+        <c:axId val="466834176"/>
+        <c:axId val="466832608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438622760"/>
+        <c:axId val="466834176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8486,6 +8492,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8552,12 +8559,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438623152"/>
+        <c:crossAx val="466832608"/>
         <c:crossesAt val="-1.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438623152"/>
+        <c:axId val="466832608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8622,6 +8629,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8688,7 +8696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438622760"/>
+        <c:crossAx val="466834176"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8702,6 +8710,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8918,11 +8927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438620800"/>
-        <c:axId val="438619232"/>
+        <c:axId val="466836136"/>
+        <c:axId val="466833000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438620800"/>
+        <c:axId val="466836136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9023,12 +9032,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438619232"/>
+        <c:crossAx val="466833000"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438619232"/>
+        <c:axId val="466833000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9129,7 +9138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438620800"/>
+        <c:crossAx val="466836136"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9389,11 +9398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438618448"/>
-        <c:axId val="438623936"/>
+        <c:axId val="466831432"/>
+        <c:axId val="466829864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438618448"/>
+        <c:axId val="466831432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9494,12 +9503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438623936"/>
+        <c:crossAx val="466829864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438623936"/>
+        <c:axId val="466829864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9600,7 +9609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438618448"/>
+        <c:crossAx val="466831432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26563,8 +26572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:AG12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48843,7 +48852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:A56"/>
     </sheetView>
   </sheetViews>

--- a/documents/StandarizedVariableAnalysis.xlsx
+++ b/documents/StandarizedVariableAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backup" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
   <si>
     <t>Vc</t>
   </si>
@@ -1277,11 +1277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389213776"/>
-        <c:axId val="389214168"/>
+        <c:axId val="319638592"/>
+        <c:axId val="319635456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389213776"/>
+        <c:axId val="319638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389214168"/>
+        <c:crossAx val="319635456"/>
         <c:crossesAt val="-1.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389214168"/>
+        <c:axId val="319635456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389213776"/>
+        <c:crossAx val="319638592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2112,11 +2112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466833392"/>
-        <c:axId val="466832216"/>
+        <c:axId val="382526632"/>
+        <c:axId val="382524280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466833392"/>
+        <c:axId val="382526632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466832216"/>
+        <c:crossAx val="382524280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466832216"/>
+        <c:axId val="382524280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466833392"/>
+        <c:crossAx val="382526632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2596,11 +2596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466834568"/>
-        <c:axId val="466834960"/>
+        <c:axId val="382528984"/>
+        <c:axId val="382528592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466834568"/>
+        <c:axId val="382528984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466834960"/>
+        <c:crossAx val="382528592"/>
         <c:crossesAt val="-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2651,7 +2651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466834960"/>
+        <c:axId val="382528592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466834568"/>
+        <c:crossAx val="382528984"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3099,11 +3099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466835744"/>
-        <c:axId val="388980744"/>
+        <c:axId val="382530552"/>
+        <c:axId val="382525848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466835744"/>
+        <c:axId val="382530552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +3145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388980744"/>
+        <c:crossAx val="382525848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3153,7 +3153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388980744"/>
+        <c:axId val="382525848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466835744"/>
+        <c:crossAx val="382530552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4329,11 +4329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388985056"/>
-        <c:axId val="388985840"/>
+        <c:axId val="382523496"/>
+        <c:axId val="382525064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388985056"/>
+        <c:axId val="382523496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,12 +4390,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388985840"/>
+        <c:crossAx val="382525064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388985840"/>
+        <c:axId val="382525064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,7 +4452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388985056"/>
+        <c:crossAx val="382523496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4676,11 +4676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322181128"/>
-        <c:axId val="322185048"/>
+        <c:axId val="382529768"/>
+        <c:axId val="382530160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322181128"/>
+        <c:axId val="382529768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,12 +4737,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322185048"/>
+        <c:crossAx val="382530160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322185048"/>
+        <c:axId val="382530160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322181128"/>
+        <c:crossAx val="382529768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5863,11 +5863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322188184"/>
-        <c:axId val="322182696"/>
+        <c:axId val="382527024"/>
+        <c:axId val="382265784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322188184"/>
+        <c:axId val="382527024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5924,12 +5924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322182696"/>
+        <c:crossAx val="382265784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322182696"/>
+        <c:axId val="382265784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5986,7 +5986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322188184"/>
+        <c:crossAx val="382527024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6224,11 +6224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389211816"/>
-        <c:axId val="389216128"/>
+        <c:axId val="319637024"/>
+        <c:axId val="382271664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389211816"/>
+        <c:axId val="319637024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6270,7 +6270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389216128"/>
+        <c:crossAx val="382271664"/>
         <c:crossesAt val="-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6278,7 +6278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389216128"/>
+        <c:axId val="382271664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,7 +6380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389211816"/>
+        <c:crossAx val="319637024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6659,11 +6659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389212992"/>
-        <c:axId val="389213384"/>
+        <c:axId val="382264608"/>
+        <c:axId val="382271272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389212992"/>
+        <c:axId val="382264608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,7 +6705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389213384"/>
+        <c:crossAx val="382271272"/>
         <c:crossesAt val="-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6713,7 +6713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389213384"/>
+        <c:axId val="382271272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6814,7 +6814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389212992"/>
+        <c:crossAx val="382264608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7093,11 +7093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389215344"/>
-        <c:axId val="389215736"/>
+        <c:axId val="382267744"/>
+        <c:axId val="382272056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389215344"/>
+        <c:axId val="382267744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7139,7 +7139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389215736"/>
+        <c:crossAx val="382272056"/>
         <c:crossesAt val="-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7147,7 +7147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389215736"/>
+        <c:axId val="382272056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7248,7 +7248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389215344"/>
+        <c:crossAx val="382267744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7527,11 +7527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="388986232"/>
-        <c:axId val="388983880"/>
+        <c:axId val="382269704"/>
+        <c:axId val="382265000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="388986232"/>
+        <c:axId val="382269704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,7 +7573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388983880"/>
+        <c:crossAx val="382265000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7581,7 +7581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388983880"/>
+        <c:axId val="382265000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,7 +7687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388986232"/>
+        <c:crossAx val="382269704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7917,11 +7917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466836528"/>
-        <c:axId val="466830648"/>
+        <c:axId val="382268528"/>
+        <c:axId val="382266176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466836528"/>
+        <c:axId val="382268528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8056,12 +8056,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466830648"/>
+        <c:crossAx val="382266176"/>
         <c:crossesAt val="-1.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466830648"/>
+        <c:axId val="382266176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8188,7 +8188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466836528"/>
+        <c:crossAx val="382268528"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8428,11 +8428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466834176"/>
-        <c:axId val="466832608"/>
+        <c:axId val="382267352"/>
+        <c:axId val="382268136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466834176"/>
+        <c:axId val="382267352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8559,12 +8559,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466832608"/>
+        <c:crossAx val="382268136"/>
         <c:crossesAt val="-1.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466832608"/>
+        <c:axId val="382268136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8696,7 +8696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466834176"/>
+        <c:crossAx val="382267352"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8927,11 +8927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466836136"/>
-        <c:axId val="466833000"/>
+        <c:axId val="382270096"/>
+        <c:axId val="382270488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466836136"/>
+        <c:axId val="382270096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9032,12 +9032,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466833000"/>
+        <c:crossAx val="382270488"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466833000"/>
+        <c:axId val="382270488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9138,7 +9138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466836136"/>
+        <c:crossAx val="382270096"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9398,11 +9398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466831432"/>
-        <c:axId val="466829864"/>
+        <c:axId val="382525456"/>
+        <c:axId val="382527416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466831432"/>
+        <c:axId val="382525456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9503,12 +9503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466829864"/>
+        <c:crossAx val="382527416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466829864"/>
+        <c:axId val="382527416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9609,7 +9609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466831432"/>
+        <c:crossAx val="382525456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26570,10 +26570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG154"/>
+  <dimension ref="A2:AM154"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:U12"/>
+    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26582,7 +26582,7 @@
     <col min="2" max="2" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -26667,8 +26667,26 @@
       <c r="AG2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26732,11 +26750,14 @@
       <c r="U3" s="8">
         <v>1</v>
       </c>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
       <c r="W3" s="1">
         <v>1</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" ref="X3:AG3" si="0">AVERAGE(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93,C103,C113,C123,C133,C143)</f>
+        <f t="shared" ref="X3:AM3" si="0">AVERAGE(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93,C103,C113,C123,C133,C143)</f>
         <v>200</v>
       </c>
       <c r="Y3" s="3">
@@ -26775,8 +26796,32 @@
         <f t="shared" si="0"/>
         <v>85.600000000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH3" s="3">
+        <f t="shared" si="0"/>
+        <v>-11.243493333333333</v>
+      </c>
+      <c r="AI3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1249133333333337</v>
+      </c>
+      <c r="AJ3" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.2274999999999998</v>
+      </c>
+      <c r="AK3" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.83753806666666664</v>
+      </c>
+      <c r="AL3" s="3">
+        <f t="shared" si="0"/>
+        <v>-14.777027866666666</v>
+      </c>
+      <c r="AM3" s="3">
+        <f t="shared" si="0"/>
+        <v>-12.303698966666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -26838,6 +26883,9 @@
         <v>0</v>
       </c>
       <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
         <v>1</v>
       </c>
       <c r="W4" s="1">
@@ -26880,11 +26928,35 @@
         <v>1.5569999999999999</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AG12" si="10">AVERAGE(L4,L14,L24,L34,L44,L54,L64,L74,L84,L94,L104,L114,L124,L134,L144)</f>
+        <f t="shared" ref="AG4:AM12" si="10">AVERAGE(L4,L14,L24,L34,L44,L54,L64,L74,L84,L94,L104,L114,L124,L134,L144)</f>
         <v>91.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH4" s="3">
+        <f t="shared" si="10"/>
+        <v>-10.316559999999999</v>
+      </c>
+      <c r="AI4" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.6892674000000002</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f t="shared" si="10"/>
+        <v>2.4718806666666664</v>
+      </c>
+      <c r="AK4" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.2980873333333334</v>
+      </c>
+      <c r="AL4" s="3">
+        <f t="shared" si="10"/>
+        <v>-19.666336933333334</v>
+      </c>
+      <c r="AM4" s="3">
+        <f t="shared" si="10"/>
+        <v>-16.289180073333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -26947,6 +27019,9 @@
       </c>
       <c r="U5" s="8">
         <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>2</v>
       </c>
       <c r="W5" s="1">
         <v>3</v>
@@ -26991,8 +27066,32 @@
         <f t="shared" si="10"/>
         <v>169.7222222222222</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH5" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.9993099999999999</v>
+      </c>
+      <c r="AI5" s="3">
+        <f t="shared" si="10"/>
+        <v>2.0555266666666667</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.495833333333334</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.6335375333333334</v>
+      </c>
+      <c r="AL5" s="3">
+        <f t="shared" si="10"/>
+        <v>2.6056215999999996</v>
+      </c>
+      <c r="AM5" s="3">
+        <f t="shared" si="10"/>
+        <v>-30.692635399999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -27055,6 +27154,9 @@
       </c>
       <c r="U6" s="8">
         <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>2</v>
       </c>
       <c r="W6" s="8">
         <v>4</v>
@@ -27099,8 +27201,32 @@
         <f t="shared" si="10"/>
         <v>58.905555555555551</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH6" s="3">
+        <f t="shared" si="10"/>
+        <v>-5.5061866666666663</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" si="10"/>
+        <v>2.4947733333333337</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.5076889333333334</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="10"/>
+        <v>2.6802073333333332</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="10"/>
+        <v>0.46759224666666666</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="10"/>
+        <v>-25.459836800000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -27163,6 +27289,9 @@
       </c>
       <c r="U7" s="8">
         <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>2</v>
       </c>
       <c r="W7" s="8">
         <v>5</v>
@@ -27207,8 +27336,32 @@
         <f t="shared" si="10"/>
         <v>100.66666666666669</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH7" s="3">
+        <f t="shared" si="10"/>
+        <v>-5.2228793333333341</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" si="10"/>
+        <v>0.55117419999999995</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="10"/>
+        <v>2.9659333333333335</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.30580506666666663</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.0246326533333336</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" si="10"/>
+        <v>-26.536296866666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -27271,6 +27424,9 @@
       </c>
       <c r="U8" s="8">
         <v>0</v>
+      </c>
+      <c r="V8" s="8">
+        <v>3</v>
       </c>
       <c r="W8" s="8">
         <v>6</v>
@@ -27315,8 +27471,32 @@
         <f t="shared" si="10"/>
         <v>195.46111111111111</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH8" s="3">
+        <f t="shared" si="10"/>
+        <v>15.725266666666666</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" si="10"/>
+        <v>7.9419473333333332</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0557906666666668</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.4768395333333334</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" si="10"/>
+        <v>22.588518200000003</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" si="10"/>
+        <v>-43.269888999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -27379,6 +27559,9 @@
       </c>
       <c r="U9" s="8">
         <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>2</v>
       </c>
       <c r="W9" s="8">
         <v>7</v>
@@ -27423,8 +27606,32 @@
         <f t="shared" si="10"/>
         <v>104.3111111111111</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH9" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2283453333333334</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.8125933333333335</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.3693533333333332</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="10"/>
+        <v>0.50395933333333331</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" si="10"/>
+        <v>4.1292565933333334</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" si="10"/>
+        <v>-36.955430733333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -27487,6 +27694,9 @@
       </c>
       <c r="U10" s="8">
         <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>3</v>
       </c>
       <c r="W10" s="8">
         <v>8</v>
@@ -27531,8 +27741,32 @@
         <f t="shared" si="10"/>
         <v>212.34444444444449</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH10" s="3">
+        <f t="shared" si="10"/>
+        <v>8.379386666666667</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="10"/>
+        <v>-5.1280533333333329</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.18812800000000005</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.2303759999999999</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="10"/>
+        <v>8.2251261666666675</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="10"/>
+        <v>-42.1045272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -27595,6 +27829,9 @@
       </c>
       <c r="U11" s="8">
         <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>3</v>
       </c>
       <c r="W11" s="8">
         <v>9</v>
@@ -27639,8 +27876,32 @@
         <f t="shared" si="10"/>
         <v>73.044444444444437</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH11" s="3">
+        <f t="shared" si="10"/>
+        <v>9.6691999999999982</v>
+      </c>
+      <c r="AI11" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.6821466666666671</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4652540000000001</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0634412666666666</v>
+      </c>
+      <c r="AL11" s="3">
+        <f t="shared" si="10"/>
+        <v>13.532872800000003</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="10"/>
+        <v>-40.47500826666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -27703,6 +27964,9 @@
       </c>
       <c r="U12" s="8">
         <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2</v>
       </c>
       <c r="W12" s="8">
         <v>10</v>
@@ -27747,8 +28011,32 @@
         <f t="shared" si="10"/>
         <v>88.1388888888889</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH12" s="3">
+        <f t="shared" si="10"/>
+        <v>0.28630066666666693</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.856314</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="10"/>
+        <v>0.82964366666666678</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="10"/>
+        <v>0.534632</v>
+      </c>
+      <c r="AL12" s="3">
+        <f t="shared" si="10"/>
+        <v>4.4075131133333327</v>
+      </c>
+      <c r="AM12" s="3">
+        <f t="shared" si="10"/>
+        <v>-32.937985533333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -27812,8 +28100,11 @@
       <c r="U13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="V13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -27880,8 +28171,11 @@
         <f>U4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="V14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -27948,8 +28242,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="V15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -28016,8 +28313,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -28084,8 +28384,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -28152,8 +28455,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -28220,8 +28526,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -28288,8 +28597,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -28356,8 +28668,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V21" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10</v>
       </c>
@@ -28424,8 +28739,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -28489,8 +28807,11 @@
       <c r="U23" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
@@ -28557,8 +28878,11 @@
         <f>U14</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -28625,8 +28949,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -28693,8 +29020,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5</v>
       </c>
@@ -28761,8 +29091,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
@@ -28829,8 +29162,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
@@ -28897,8 +29233,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -28965,8 +29304,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -29033,8 +29375,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -29101,8 +29446,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -29166,8 +29514,11 @@
       <c r="U33" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -29234,8 +29585,11 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3</v>
       </c>
@@ -29302,8 +29656,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V35" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -29370,8 +29727,11 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V36" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>5</v>
       </c>
@@ -29438,8 +29798,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6</v>
       </c>
@@ -29506,8 +29869,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7</v>
       </c>
@@ -29574,8 +29940,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8</v>
       </c>
@@ -29642,8 +30011,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V40" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9</v>
       </c>
@@ -29710,8 +30082,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V41" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10</v>
       </c>
@@ -29778,8 +30153,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V42" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -29843,8 +30221,11 @@
       <c r="U43" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -29911,8 +30292,11 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3</v>
       </c>
@@ -29979,8 +30363,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4</v>
       </c>
@@ -30047,8 +30434,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V46" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5</v>
       </c>
@@ -30115,8 +30505,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V47" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6</v>
       </c>
@@ -30183,8 +30576,11 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V48" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>7</v>
       </c>
@@ -30251,8 +30647,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V49" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8</v>
       </c>
@@ -30319,8 +30718,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V50" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>9</v>
       </c>
@@ -30387,8 +30789,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V51" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>10</v>
       </c>
@@ -30455,8 +30860,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -30520,8 +30928,11 @@
       <c r="U53" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2</v>
       </c>
@@ -30588,8 +30999,11 @@
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3</v>
       </c>
@@ -30656,8 +31070,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V55" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4</v>
       </c>
@@ -30724,8 +31141,11 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5</v>
       </c>
@@ -30792,8 +31212,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V57" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
@@ -30860,8 +31283,11 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V58" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>7</v>
       </c>
@@ -30928,8 +31354,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>8</v>
       </c>
@@ -30996,8 +31425,11 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V60" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>9</v>
       </c>
@@ -31064,8 +31496,11 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V61" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>10</v>
       </c>
@@ -31132,8 +31567,11 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V62" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
@@ -31197,8 +31635,11 @@
       <c r="U63" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2</v>
       </c>
@@ -31265,8 +31706,11 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>3</v>
       </c>
@@ -31333,8 +31777,11 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V65" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>4</v>
       </c>
@@ -31401,8 +31848,11 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V66" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>5</v>
       </c>
@@ -31469,8 +31919,11 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V67" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6</v>
       </c>
@@ -31537,8 +31990,11 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V68" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>7</v>
       </c>
@@ -31605,8 +32061,11 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V69" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>8</v>
       </c>
@@ -31673,8 +32132,11 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V70" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>9</v>
       </c>
@@ -31741,8 +32203,11 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V71" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>10</v>
       </c>
@@ -31809,8 +32274,11 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V72" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1</v>
       </c>
@@ -31874,8 +32342,11 @@
       <c r="U73" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2</v>
       </c>
@@ -31942,8 +32413,11 @@
         <f t="shared" si="52"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>3</v>
       </c>
@@ -32010,8 +32484,11 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V75" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4</v>
       </c>
@@ -32078,8 +32555,11 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V76" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>5</v>
       </c>
@@ -32146,8 +32626,11 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V77" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>6</v>
       </c>
@@ -32214,8 +32697,11 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V78" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7</v>
       </c>
@@ -32282,8 +32768,11 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V79" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>8</v>
       </c>
@@ -32350,8 +32839,11 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V80" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>9</v>
       </c>
@@ -32418,8 +32910,11 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V81" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>10</v>
       </c>
@@ -32486,8 +32981,11 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V82" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -32551,8 +33049,11 @@
       <c r="U83" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2</v>
       </c>
@@ -32619,8 +33120,11 @@
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>3</v>
       </c>
@@ -32687,8 +33191,11 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V85" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>4</v>
       </c>
@@ -32755,8 +33262,11 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V86" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5</v>
       </c>
@@ -32823,8 +33333,11 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V87" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>6</v>
       </c>
@@ -32891,8 +33404,11 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V88" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>7</v>
       </c>
@@ -32959,8 +33475,11 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V89" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>8</v>
       </c>
@@ -33027,8 +33546,11 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V90" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
@@ -33095,8 +33617,11 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V91" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>10</v>
       </c>
@@ -33163,8 +33688,11 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V92" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1</v>
       </c>
@@ -33228,8 +33756,11 @@
       <c r="U93" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2</v>
       </c>
@@ -33296,8 +33827,11 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V94" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>3</v>
       </c>
@@ -33364,8 +33898,11 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V95" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>4</v>
       </c>
@@ -33432,8 +33969,11 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V96" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5</v>
       </c>
@@ -33500,8 +34040,11 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V97" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>6</v>
       </c>
@@ -33568,8 +34111,11 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V98" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>7</v>
       </c>
@@ -33636,8 +34182,11 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V99" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>8</v>
       </c>
@@ -33704,8 +34253,11 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V100" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>9</v>
       </c>
@@ -33772,8 +34324,11 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V101" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>10</v>
       </c>
@@ -33840,8 +34395,11 @@
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V102" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1</v>
       </c>
@@ -33905,8 +34463,11 @@
       <c r="U103" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V103" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2</v>
       </c>
@@ -33973,8 +34534,11 @@
         <f t="shared" si="76"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V104" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>3</v>
       </c>
@@ -34041,8 +34605,11 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V105" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>4</v>
       </c>
@@ -34109,8 +34676,11 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V106" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>5</v>
       </c>
@@ -34177,8 +34747,11 @@
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V107" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>6</v>
       </c>
@@ -34245,8 +34818,11 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V108" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>7</v>
       </c>
@@ -34313,8 +34889,11 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V109" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>8</v>
       </c>
@@ -34381,8 +34960,11 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V110" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>9</v>
       </c>
@@ -34449,8 +35031,11 @@
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V111" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>10</v>
       </c>
@@ -34517,8 +35102,11 @@
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V112" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1</v>
       </c>
@@ -34582,8 +35170,11 @@
       <c r="U113" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V113" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2</v>
       </c>
@@ -34650,8 +35241,11 @@
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V114" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>3</v>
       </c>
@@ -34718,8 +35312,11 @@
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V115" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>4</v>
       </c>
@@ -34786,8 +35383,11 @@
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V116" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>5</v>
       </c>
@@ -34854,8 +35454,11 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V117" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>6</v>
       </c>
@@ -34922,8 +35525,11 @@
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V118" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>7</v>
       </c>
@@ -34990,8 +35596,11 @@
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V119" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>8</v>
       </c>
@@ -35058,8 +35667,11 @@
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V120" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>9</v>
       </c>
@@ -35126,8 +35738,11 @@
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V121" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>10</v>
       </c>
@@ -35194,8 +35809,11 @@
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V122" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1</v>
       </c>
@@ -35259,8 +35877,11 @@
       <c r="U123" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V123" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2</v>
       </c>
@@ -35327,8 +35948,11 @@
         <f t="shared" si="92"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V124" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>3</v>
       </c>
@@ -35395,8 +36019,11 @@
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V125" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>4</v>
       </c>
@@ -35463,8 +36090,11 @@
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V126" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>5</v>
       </c>
@@ -35531,8 +36161,11 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V127" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>6</v>
       </c>
@@ -35599,8 +36232,11 @@
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V128" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>7</v>
       </c>
@@ -35667,8 +36303,11 @@
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V129" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>8</v>
       </c>
@@ -35735,8 +36374,11 @@
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V130" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>9</v>
       </c>
@@ -35803,8 +36445,11 @@
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V131" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>10</v>
       </c>
@@ -35871,8 +36516,11 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V132" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1</v>
       </c>
@@ -35936,8 +36584,11 @@
       <c r="U133" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V133" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2</v>
       </c>
@@ -36004,8 +36655,11 @@
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V134" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>3</v>
       </c>
@@ -36072,8 +36726,11 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V135" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>4</v>
       </c>
@@ -36140,8 +36797,11 @@
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V136" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>5</v>
       </c>
@@ -36208,8 +36868,11 @@
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V137" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>6</v>
       </c>
@@ -36276,8 +36939,11 @@
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V138" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>7</v>
       </c>
@@ -36344,8 +37010,11 @@
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V139" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>8</v>
       </c>
@@ -36412,8 +37081,11 @@
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V140" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>9</v>
       </c>
@@ -36480,8 +37152,11 @@
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V141" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>10</v>
       </c>
@@ -36548,8 +37223,11 @@
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V142" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1</v>
       </c>
@@ -36613,8 +37291,11 @@
       <c r="U143" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V143" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2</v>
       </c>
@@ -36681,8 +37362,11 @@
         <f t="shared" si="107"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V144" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>3</v>
       </c>
@@ -36749,8 +37433,11 @@
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V145" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>4</v>
       </c>
@@ -36817,8 +37504,11 @@
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V146" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>5</v>
       </c>
@@ -36885,8 +37575,11 @@
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V147" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>6</v>
       </c>
@@ -36953,8 +37646,11 @@
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V148" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>7</v>
       </c>
@@ -37021,8 +37717,11 @@
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V149" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>8</v>
       </c>
@@ -37089,8 +37788,11 @@
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V150" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>9</v>
       </c>
@@ -37157,8 +37859,11 @@
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V151" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>10</v>
       </c>
@@ -37225,8 +37930,11 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V152" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>15</v>
       </c>
@@ -37296,7 +38004,7 @@
         <v>-30.702448883999999</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154" s="19" t="s">
         <v>14</v>
       </c>
@@ -37382,7 +38090,7 @@
   <dimension ref="A1:AI152"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:AB11"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48852,7 +49560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A52:A56"/>
     </sheetView>
   </sheetViews>
